--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Icam4-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Icam4-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9688906666666667</v>
+        <v>0.7709829999999999</v>
       </c>
       <c r="H2">
-        <v>2.906672</v>
+        <v>2.312949</v>
       </c>
       <c r="I2">
-        <v>0.2030926387205187</v>
+        <v>0.1957948716950263</v>
       </c>
       <c r="J2">
-        <v>0.2030926387205187</v>
+        <v>0.1962315083994536</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N2">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O2">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P2">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q2">
-        <v>133.9191817346702</v>
+        <v>94.00498498043697</v>
       </c>
       <c r="R2">
-        <v>1205.272635612032</v>
+        <v>846.0448648239328</v>
       </c>
       <c r="S2">
-        <v>0.04568007665138146</v>
+        <v>0.04468493512829588</v>
       </c>
       <c r="T2">
-        <v>0.05029790267160101</v>
+        <v>0.04748253901427913</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9688906666666667</v>
+        <v>0.7709829999999999</v>
       </c>
       <c r="H3">
-        <v>2.906672</v>
+        <v>2.312949</v>
       </c>
       <c r="I3">
-        <v>0.2030926387205187</v>
+        <v>0.1957948716950263</v>
       </c>
       <c r="J3">
-        <v>0.2030926387205187</v>
+        <v>0.1962315083994536</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P3">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q3">
-        <v>143.3128138032533</v>
+        <v>114.03943388639</v>
       </c>
       <c r="R3">
-        <v>1289.81532422928</v>
+        <v>1026.35490497751</v>
       </c>
       <c r="S3">
-        <v>0.04888426164840389</v>
+        <v>0.05420823913052483</v>
       </c>
       <c r="T3">
-        <v>0.05382600062887895</v>
+        <v>0.05760207152635245</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9688906666666667</v>
+        <v>0.7709829999999999</v>
       </c>
       <c r="H4">
-        <v>2.906672</v>
+        <v>2.312949</v>
       </c>
       <c r="I4">
-        <v>0.2030926387205187</v>
+        <v>0.1957948716950263</v>
       </c>
       <c r="J4">
-        <v>0.2030926387205187</v>
+        <v>0.1962315083994536</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N4">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O4">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P4">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q4">
-        <v>71.96204572317156</v>
+        <v>64.38091177152133</v>
       </c>
       <c r="R4">
-        <v>647.658411508544</v>
+        <v>579.4282059436919</v>
       </c>
       <c r="S4">
-        <v>0.02454638478255923</v>
+        <v>0.03060323733480371</v>
       </c>
       <c r="T4">
-        <v>0.02702779336723146</v>
+        <v>0.03251922390713959</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9688906666666667</v>
+        <v>0.7709829999999999</v>
       </c>
       <c r="H5">
-        <v>2.906672</v>
+        <v>2.312949</v>
       </c>
       <c r="I5">
-        <v>0.2030926387205187</v>
+        <v>0.1957948716950263</v>
       </c>
       <c r="J5">
-        <v>0.2030926387205187</v>
+        <v>0.1962315083994536</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N5">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O5">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P5">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q5">
-        <v>163.990651206392</v>
+        <v>70.21223642363749</v>
       </c>
       <c r="R5">
-        <v>983.943907238352</v>
+        <v>421.273418541825</v>
       </c>
       <c r="S5">
-        <v>0.05593750962472153</v>
+        <v>0.03337513675956369</v>
       </c>
       <c r="T5">
-        <v>0.04106151041540778</v>
+        <v>0.02364310967805912</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9688906666666667</v>
+        <v>0.7709829999999999</v>
       </c>
       <c r="H6">
-        <v>2.906672</v>
+        <v>2.312949</v>
       </c>
       <c r="I6">
-        <v>0.2030926387205187</v>
+        <v>0.1957948716950263</v>
       </c>
       <c r="J6">
-        <v>0.2030926387205187</v>
+        <v>0.1962315083994536</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N6">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O6">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P6">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q6">
-        <v>82.21711040939913</v>
+        <v>69.26174352428998</v>
       </c>
       <c r="R6">
-        <v>739.9539936845921</v>
+        <v>623.3556917186099</v>
       </c>
       <c r="S6">
-        <v>0.02804440601345265</v>
+        <v>0.03292332334183815</v>
       </c>
       <c r="T6">
-        <v>0.03087943163739951</v>
+        <v>0.03498456427362335</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>3.495231</v>
       </c>
       <c r="I7">
-        <v>0.2442159578816452</v>
+        <v>0.29587695413495</v>
       </c>
       <c r="J7">
-        <v>0.2442159578816452</v>
+        <v>0.29653678111127</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N7">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O7">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P7">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q7">
-        <v>161.035877282904</v>
+        <v>142.056369447903</v>
       </c>
       <c r="R7">
-        <v>1449.322895546136</v>
+        <v>1278.507325031127</v>
       </c>
       <c r="S7">
-        <v>0.05492963086109635</v>
+        <v>0.0675259897617322</v>
       </c>
       <c r="T7">
-        <v>0.06048249979796918</v>
+        <v>0.07175361078926422</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>3.495231</v>
       </c>
       <c r="I8">
-        <v>0.2442159578816452</v>
+        <v>0.29587695413495</v>
       </c>
       <c r="J8">
-        <v>0.2442159578816452</v>
+        <v>0.29653678111127</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P8">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q8">
         <v>172.33158385341</v>
@@ -948,10 +948,10 @@
         <v>1550.98425468069</v>
       </c>
       <c r="S8">
-        <v>0.05878261693290897</v>
+        <v>0.08191720520617767</v>
       </c>
       <c r="T8">
-        <v>0.06472498651518892</v>
+        <v>0.08704582161695931</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>3.495231</v>
       </c>
       <c r="I9">
-        <v>0.2442159578816452</v>
+        <v>0.29587695413495</v>
       </c>
       <c r="J9">
-        <v>0.2442159578816452</v>
+        <v>0.29653678111127</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N9">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O9">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P9">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q9">
-        <v>86.53331818486799</v>
+        <v>97.28971915597199</v>
       </c>
       <c r="R9">
-        <v>778.7998636638119</v>
+        <v>875.6074724037479</v>
       </c>
       <c r="S9">
-        <v>0.02951667234209064</v>
+        <v>0.04624632183111833</v>
       </c>
       <c r="T9">
-        <v>0.03250053024171347</v>
+        <v>0.04914167994892037</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>3.495231</v>
       </c>
       <c r="I10">
-        <v>0.2442159578816452</v>
+        <v>0.29587695413495</v>
       </c>
       <c r="J10">
-        <v>0.2442159578816452</v>
+        <v>0.29653678111127</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N10">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O10">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P10">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q10">
-        <v>197.1963839768535</v>
+        <v>106.1017710841125</v>
       </c>
       <c r="R10">
-        <v>1183.178303861121</v>
+        <v>636.6106265046751</v>
       </c>
       <c r="S10">
-        <v>0.06726404551429438</v>
+        <v>0.05043509936071507</v>
       </c>
       <c r="T10">
-        <v>0.04937587182549533</v>
+        <v>0.03572847039997522</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>3.495231</v>
       </c>
       <c r="I11">
-        <v>0.2442159578816452</v>
+        <v>0.29587695413495</v>
       </c>
       <c r="J11">
-        <v>0.2442159578816452</v>
+        <v>0.29653678111127</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N11">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O11">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P11">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q11">
-        <v>98.86488500709902</v>
+        <v>104.66542629351</v>
       </c>
       <c r="R11">
-        <v>889.7839650638912</v>
+        <v>941.98883664159</v>
       </c>
       <c r="S11">
-        <v>0.0337229922312549</v>
+        <v>0.04975233797520667</v>
       </c>
       <c r="T11">
-        <v>0.03713206950127828</v>
+        <v>0.05286719835615088</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.360828666666666</v>
+        <v>1.204549666666667</v>
       </c>
       <c r="H12">
-        <v>4.082485999999999</v>
+        <v>3.613649000000001</v>
       </c>
       <c r="I12">
-        <v>0.2852481650078081</v>
+        <v>0.3059012292557511</v>
       </c>
       <c r="J12">
-        <v>0.2852481650078081</v>
+        <v>0.306583411089556</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N12">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O12">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P12">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q12">
-        <v>188.0924936020462</v>
+        <v>146.869221919537</v>
       </c>
       <c r="R12">
-        <v>1692.832442418416</v>
+        <v>1321.822997275833</v>
       </c>
       <c r="S12">
-        <v>0.06415869193641102</v>
+        <v>0.06981376205935856</v>
       </c>
       <c r="T12">
-        <v>0.07064453212683568</v>
+        <v>0.07418461437170072</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.360828666666666</v>
+        <v>1.204549666666667</v>
       </c>
       <c r="H13">
-        <v>4.082485999999999</v>
+        <v>3.613649000000001</v>
       </c>
       <c r="I13">
-        <v>0.2852481650078081</v>
+        <v>0.3059012292557511</v>
       </c>
       <c r="J13">
-        <v>0.2852481650078081</v>
+        <v>0.306583411089556</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P13">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q13">
-        <v>201.2860604747933</v>
+        <v>178.1701568967233</v>
       </c>
       <c r="R13">
-        <v>1811.57454427314</v>
+        <v>1603.53141207051</v>
       </c>
       <c r="S13">
-        <v>0.0686590416118316</v>
+        <v>0.0846925501279025</v>
       </c>
       <c r="T13">
-        <v>0.0755998248180013</v>
+        <v>0.08999492343719297</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.360828666666666</v>
+        <v>1.204549666666667</v>
       </c>
       <c r="H14">
-        <v>4.082485999999999</v>
+        <v>3.613649000000001</v>
       </c>
       <c r="I14">
-        <v>0.2852481650078081</v>
+        <v>0.3059012292557511</v>
       </c>
       <c r="J14">
-        <v>0.2852481650078081</v>
+        <v>0.306583411089556</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N14">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O14">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P14">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q14">
-        <v>101.0723068155635</v>
+        <v>100.5858829754769</v>
       </c>
       <c r="R14">
-        <v>909.6507613400718</v>
+        <v>905.2729467792921</v>
       </c>
       <c r="S14">
-        <v>0.03447594782810414</v>
+        <v>0.04781314157453369</v>
       </c>
       <c r="T14">
-        <v>0.03796114182563952</v>
+        <v>0.05080659407224764</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1331,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.360828666666666</v>
+        <v>1.204549666666667</v>
       </c>
       <c r="H15">
-        <v>4.082485999999999</v>
+        <v>3.613649000000001</v>
       </c>
       <c r="I15">
-        <v>0.2852481650078081</v>
+        <v>0.3059012292557511</v>
       </c>
       <c r="J15">
-        <v>0.2852481650078081</v>
+        <v>0.306583411089556</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N15">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O15">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P15">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q15">
-        <v>230.328546764471</v>
+        <v>109.6964861482209</v>
       </c>
       <c r="R15">
-        <v>1381.971280586826</v>
+        <v>658.1789168893251</v>
       </c>
       <c r="S15">
-        <v>0.07856548654880595</v>
+        <v>0.05214383437596791</v>
       </c>
       <c r="T15">
-        <v>0.0576718120963619</v>
+        <v>0.0369389466196655</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,14 +1393,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
         <v>3</v>
       </c>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.360828666666666</v>
+        <v>1.204549666666667</v>
       </c>
       <c r="H16">
-        <v>4.082485999999999</v>
+        <v>3.613649000000001</v>
       </c>
       <c r="I16">
-        <v>0.2852481650078081</v>
+        <v>0.3059012292557511</v>
       </c>
       <c r="J16">
-        <v>0.2852481650078081</v>
+        <v>0.306583411089556</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N16">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O16">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P16">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q16">
-        <v>115.4757751156051</v>
+        <v>108.21147817129</v>
       </c>
       <c r="R16">
-        <v>1039.281976040446</v>
+        <v>973.9033035416102</v>
       </c>
       <c r="S16">
-        <v>0.03938899708265545</v>
+        <v>0.05143794111798838</v>
       </c>
       <c r="T16">
-        <v>0.04337085414096967</v>
+        <v>0.05465833258874916</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G17">
-        <v>1.275887</v>
+        <v>0.0262855</v>
       </c>
       <c r="H17">
-        <v>3.827661</v>
+        <v>0.052571</v>
       </c>
       <c r="I17">
-        <v>0.267443238390028</v>
+        <v>0.006675330195269693</v>
       </c>
       <c r="J17">
-        <v>0.267443238390028</v>
+        <v>0.004460144442470491</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N17">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O17">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P17">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q17">
-        <v>176.3519341286907</v>
+        <v>3.2049578689845</v>
       </c>
       <c r="R17">
-        <v>1587.167407158216</v>
+        <v>19.229747213907</v>
       </c>
       <c r="S17">
-        <v>0.06015396572970855</v>
+        <v>0.001523465319358302</v>
       </c>
       <c r="T17">
-        <v>0.06623496577456382</v>
+        <v>0.001079230263408172</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G18">
-        <v>1.275887</v>
+        <v>0.0262855</v>
       </c>
       <c r="H18">
-        <v>3.827661</v>
+        <v>0.052571</v>
       </c>
       <c r="I18">
-        <v>0.267443238390028</v>
+        <v>0.006675330195269693</v>
       </c>
       <c r="J18">
-        <v>0.267443238390028</v>
+        <v>0.004460144442470491</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>443.74299</v>
       </c>
       <c r="O18">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P18">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q18">
-        <v>188.72197076071</v>
+        <v>3.888002121215</v>
       </c>
       <c r="R18">
-        <v>1698.49773684639</v>
+        <v>23.32801272729</v>
       </c>
       <c r="S18">
-        <v>0.06437340774101491</v>
+        <v>0.001848147974294388</v>
       </c>
       <c r="T18">
-        <v>0.07088095367937471</v>
+        <v>0.001309237039905279</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G19">
-        <v>1.275887</v>
+        <v>0.0262855</v>
       </c>
       <c r="H19">
-        <v>3.827661</v>
+        <v>0.052571</v>
       </c>
       <c r="I19">
-        <v>0.267443238390028</v>
+        <v>0.006675330195269693</v>
       </c>
       <c r="J19">
-        <v>0.267443238390028</v>
+        <v>0.004460144442470491</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N19">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O19">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P19">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q19">
-        <v>94.76346691157467</v>
+        <v>2.194969871411333</v>
       </c>
       <c r="R19">
-        <v>852.8712022041719</v>
+        <v>13.169819228468</v>
       </c>
       <c r="S19">
-        <v>0.03232399105340935</v>
+        <v>0.001043371118382614</v>
       </c>
       <c r="T19">
-        <v>0.03559164246526974</v>
+        <v>0.0007391291896285805</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G20">
-        <v>1.275887</v>
+        <v>0.0262855</v>
       </c>
       <c r="H20">
-        <v>3.827661</v>
+        <v>0.052571</v>
       </c>
       <c r="I20">
-        <v>0.267443238390028</v>
+        <v>0.006675330195269693</v>
       </c>
       <c r="J20">
-        <v>0.267443238390028</v>
+        <v>0.004460144442470491</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N20">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O20">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P20">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q20">
-        <v>215.9516519192085</v>
+        <v>2.39378007104375</v>
       </c>
       <c r="R20">
-        <v>1295.709911515251</v>
+        <v>9.575120284175002</v>
       </c>
       <c r="S20">
-        <v>0.07366150154804919</v>
+        <v>0.00113787483938493</v>
       </c>
       <c r="T20">
-        <v>0.05407199092919674</v>
+        <v>0.0005373840577052267</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+      <c r="G21">
+        <v>0.0262855</v>
+      </c>
+      <c r="H21">
+        <v>0.052571</v>
+      </c>
+      <c r="I21">
+        <v>0.006675330195269693</v>
+      </c>
+      <c r="J21">
+        <v>0.004460144442470491</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>89.83562999999999</v>
+      </c>
+      <c r="N21">
+        <v>269.50689</v>
+      </c>
+      <c r="O21">
+        <v>0.1681521229683693</v>
+      </c>
+      <c r="P21">
+        <v>0.1782820942415013</v>
+      </c>
+      <c r="Q21">
+        <v>2.361374452365</v>
+      </c>
+      <c r="R21">
+        <v>14.16824671419</v>
+      </c>
+      <c r="S21">
+        <v>0.001122470943849458</v>
+      </c>
+      <c r="T21">
+        <v>0.0007951638918232323</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.7708126666666667</v>
+      </c>
+      <c r="H22">
+        <v>2.312438</v>
+      </c>
+      <c r="I22">
+        <v>0.195751614719003</v>
+      </c>
+      <c r="J22">
+        <v>0.1961881549572498</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>121.928739</v>
+      </c>
+      <c r="N22">
+        <v>365.786217</v>
+      </c>
+      <c r="O22">
+        <v>0.2282232151508951</v>
+      </c>
+      <c r="P22">
+        <v>0.2419720431319445</v>
+      </c>
+      <c r="Q22">
+        <v>93.984216451894</v>
+      </c>
+      <c r="R22">
+        <v>845.857948067046</v>
+      </c>
+      <c r="S22">
+        <v>0.04467506288215014</v>
+      </c>
+      <c r="T22">
+        <v>0.04747204869329226</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.7708126666666667</v>
+      </c>
+      <c r="H23">
+        <v>2.312438</v>
+      </c>
+      <c r="I23">
+        <v>0.195751614719003</v>
+      </c>
+      <c r="J23">
+        <v>0.1961881549572498</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>147.91433</v>
+      </c>
+      <c r="N23">
+        <v>443.74299</v>
+      </c>
+      <c r="O23">
+        <v>0.2768624053389947</v>
+      </c>
+      <c r="P23">
+        <v>0.2935413991166814</v>
+      </c>
+      <c r="Q23">
+        <v>114.0142391455133</v>
+      </c>
+      <c r="R23">
+        <v>1026.12815230962</v>
+      </c>
+      <c r="S23">
+        <v>0.05419626290009533</v>
+      </c>
+      <c r="T23">
+        <v>0.0575893454962714</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.7708126666666667</v>
+      </c>
+      <c r="H24">
+        <v>2.312438</v>
+      </c>
+      <c r="I24">
+        <v>0.195751614719003</v>
+      </c>
+      <c r="J24">
+        <v>0.1961881549572498</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>83.50496933333334</v>
+      </c>
+      <c r="N24">
+        <v>250.514908</v>
+      </c>
+      <c r="O24">
+        <v>0.1563025480180701</v>
+      </c>
+      <c r="P24">
+        <v>0.1657186665504434</v>
+      </c>
+      <c r="Q24">
+        <v>64.36668809174489</v>
+      </c>
+      <c r="R24">
+        <v>579.300192825704</v>
+      </c>
+      <c r="S24">
+        <v>0.03059647615923172</v>
+      </c>
+      <c r="T24">
+        <v>0.03251203943250719</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.275887</v>
-      </c>
-      <c r="H21">
-        <v>3.827661</v>
-      </c>
-      <c r="I21">
-        <v>0.267443238390028</v>
-      </c>
-      <c r="J21">
-        <v>0.267443238390028</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>84.85695366666668</v>
-      </c>
-      <c r="N21">
-        <v>254.570861</v>
-      </c>
-      <c r="O21">
-        <v>0.138086767645209</v>
-      </c>
-      <c r="P21">
-        <v>0.1520460408212704</v>
-      </c>
-      <c r="Q21">
-        <v>108.2678840429024</v>
-      </c>
-      <c r="R21">
-        <v>974.4109563861211</v>
-      </c>
-      <c r="S21">
-        <v>0.03693037231784605</v>
-      </c>
-      <c r="T21">
-        <v>0.04066368554162295</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.7708126666666667</v>
+      </c>
+      <c r="H25">
+        <v>2.312438</v>
+      </c>
+      <c r="I25">
+        <v>0.195751614719003</v>
+      </c>
+      <c r="J25">
+        <v>0.1961881549572498</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>91.06846250000001</v>
+      </c>
+      <c r="N25">
+        <v>182.136925</v>
+      </c>
+      <c r="O25">
+        <v>0.1704597085236707</v>
+      </c>
+      <c r="P25">
+        <v>0.1204857969594293</v>
+      </c>
+      <c r="Q25">
+        <v>70.19672442885835</v>
+      </c>
+      <c r="R25">
+        <v>421.1803465731501</v>
+      </c>
+      <c r="S25">
+        <v>0.03336776318803914</v>
+      </c>
+      <c r="T25">
+        <v>0.02363788620402426</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.7708126666666667</v>
+      </c>
+      <c r="H26">
+        <v>2.312438</v>
+      </c>
+      <c r="I26">
+        <v>0.195751614719003</v>
+      </c>
+      <c r="J26">
+        <v>0.1961881549572498</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>89.83562999999999</v>
+      </c>
+      <c r="N26">
+        <v>269.50689</v>
+      </c>
+      <c r="O26">
+        <v>0.1681521229683693</v>
+      </c>
+      <c r="P26">
+        <v>0.1782820942415013</v>
+      </c>
+      <c r="Q26">
+        <v>69.24644152198</v>
+      </c>
+      <c r="R26">
+        <v>623.2179736978201</v>
+      </c>
+      <c r="S26">
+        <v>0.03291604958948664</v>
+      </c>
+      <c r="T26">
+        <v>0.03497683513115467</v>
       </c>
     </row>
   </sheetData>
